--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.66119218550026</v>
+        <v>15.62992536828405</v>
       </c>
       <c r="C11" t="n">
-        <v>50.72212579366969</v>
+        <v>50.5866668604292</v>
       </c>
       <c r="D11" t="n">
-        <v>59.77898206741315</v>
+        <v>59.77303241614006</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.6649406454283</v>
+        <v>14.16894774253397</v>
       </c>
       <c r="C12" t="n">
-        <v>47.45238825054551</v>
+        <v>45.69271931014208</v>
       </c>
       <c r="D12" t="n">
-        <v>56.55752349032402</v>
+        <v>55.15414960871219</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.80978250479224</v>
+        <v>16.50718283986776</v>
       </c>
       <c r="C13" t="n">
-        <v>51.30878503956424</v>
+        <v>53.87579999031864</v>
       </c>
       <c r="D13" t="n">
-        <v>60.33135143380141</v>
+        <v>62.60758978108984</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.62373554605704</v>
+        <v>15.64274328933119</v>
       </c>
       <c r="C11" t="n">
-        <v>50.55747740614616</v>
+        <v>50.6449953322085</v>
       </c>
       <c r="D11" t="n">
-        <v>59.72817228723667</v>
+        <v>59.71483334336537</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.750459617190502</v>
+        <v>0.09325694072704377</v>
       </c>
       <c r="C2" t="n">
-        <v>32.20718985740614</v>
+        <v>0.3024050699141662</v>
       </c>
       <c r="D2" t="n">
-        <v>17.09274775981742</v>
+        <v>0.1650235214996689</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.39561889683499</v>
+        <v>0.1227561573640726</v>
       </c>
       <c r="C3" t="n">
-        <v>45.12491452818577</v>
+        <v>0.4021707268688638</v>
       </c>
       <c r="D3" t="n">
-        <v>32.94021998052049</v>
+        <v>0.283039998634834</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.29671224141683</v>
+        <v>0.1066933363738474</v>
       </c>
       <c r="C4" t="n">
-        <v>40.33509815445453</v>
+        <v>0.3440827995251922</v>
       </c>
       <c r="D4" t="n">
-        <v>50.96302558264008</v>
+        <v>0.4595727942834857</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.860064727925392</v>
+        <v>0.09748542509840714</v>
       </c>
       <c r="C5" t="n">
-        <v>32.7742710776693</v>
+        <v>0.3158972861545685</v>
       </c>
       <c r="D5" t="n">
-        <v>42.06882581669286</v>
+        <v>0.4236650973741574</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.07984449416899</v>
+        <v>0.09370774544793407</v>
       </c>
       <c r="C6" t="n">
-        <v>33.53569543788576</v>
+        <v>0.3034859144863045</v>
       </c>
       <c r="D6" t="n">
-        <v>42.80476918030317</v>
+        <v>0.4063189807347062</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.80293402855774</v>
+        <v>0.1055748756361602</v>
       </c>
       <c r="C7" t="n">
-        <v>40.02754466210708</v>
+        <v>0.3498271287230948</v>
       </c>
       <c r="D7" t="n">
-        <v>50.68945613011776</v>
+        <v>0.4479727725069796</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.3910363926924</v>
+        <v>0.1204026826801414</v>
       </c>
       <c r="C8" t="n">
-        <v>45.09256306524561</v>
+        <v>0.3944531798618851</v>
       </c>
       <c r="D8" t="n">
-        <v>57.44401518292451</v>
+        <v>0.5213339613777467</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.37779045830562</v>
+        <v>0.1224179806894709</v>
       </c>
       <c r="C9" t="n">
-        <v>45.06440244045397</v>
+        <v>0.4009954016713005</v>
       </c>
       <c r="D9" t="n">
-        <v>57.1378703586805</v>
+        <v>0.5304066180084498</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.43164441003387</v>
+        <v>0.0161708906261106</v>
       </c>
       <c r="C10" t="n">
-        <v>11.49672632197892</v>
+        <v>0.07363030303251704</v>
       </c>
       <c r="D10" t="n">
-        <v>13.07071477533063</v>
+        <v>0.08360199061530117</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.64274328933119</v>
+        <v>0.1761979818689271</v>
       </c>
       <c r="C11" t="n">
-        <v>50.6449953322085</v>
+        <v>0.5788656624822716</v>
       </c>
       <c r="D11" t="n">
-        <v>59.71483334336537</v>
+        <v>0.6409766291056843</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.16894774253397</v>
+        <v>0.177019312008828</v>
       </c>
       <c r="C12" t="n">
-        <v>45.69271931014208</v>
+        <v>0.5817667935084873</v>
       </c>
       <c r="D12" t="n">
-        <v>55.15414960871219</v>
+        <v>0.6442744652141186</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.50718283986776</v>
+        <v>0.1723682318607324</v>
       </c>
       <c r="C13" t="n">
-        <v>53.87579999031864</v>
+        <v>0.563767422557955</v>
       </c>
       <c r="D13" t="n">
-        <v>62.60758978108984</v>
+        <v>0.6326489534050019</v>
       </c>
     </row>
   </sheetData>
